--- a/Input/Takaful_Nextcare/benefits.xlsx
+++ b/Input/Takaful_Nextcare/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="129">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -184,6 +184,9 @@
     <t xml:space="preserve">residency</t>
   </si>
   <si>
+    <t xml:space="preserve">discounts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rhodium</t>
   </si>
   <si>
@@ -290,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">UAE-AbuDhabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% - 4</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -581,33 +587,36 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BB1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BD7" activeCellId="0" sqref="BD7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE1" activeCellId="0" sqref="BE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.67"/>
@@ -629,6 +638,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="26.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="24.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="24.84"/>
@@ -649,9 +659,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="23.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="13.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="26.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,854 +832,860 @@
       <c r="BD1" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="BE1" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ2" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="AR2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AX2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW3" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW3" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AX3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AU4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW4" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AX4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI5" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="AJ5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AU5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW5" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AX5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AD6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN6" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AF6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="AO6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AU6" s="0" t="s">
+      <c r="AW6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AV6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW6" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AX6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="73.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="AD7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN7" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="AF7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN7" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="AO7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AS7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU7" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AU7" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AV7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
